--- a/nr-keep-only-ep/ig/StructureDefinition-fr-medication-history-sources.xlsx
+++ b/nr-keep-only-ep/ig/StructureDefinition-fr-medication-history-sources.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:26:04+00:00</t>
+    <t>2025-10-28T16:05:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-keep-only-ep/ig/StructureDefinition-fr-medication-history-sources.xlsx
+++ b/nr-keep-only-ep/ig/StructureDefinition-fr-medication-history-sources.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T16:05:01+00:00</t>
+    <t>2025-10-28T16:06:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-keep-only-ep/ig/StructureDefinition-fr-medication-history-sources.xlsx
+++ b/nr-keep-only-ep/ig/StructureDefinition-fr-medication-history-sources.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/eprescription/StructureDefinition/fr-medication-history-sources</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eprescription/StructureDefinition/fr-medication-history-sources</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T16:06:33+00:00</t>
+    <t>2025-10-28T16:07:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -493,7 +493,7 @@
     <t>fr-medication-history-source-type</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/eprescription/ValueSet/fr-medication-history-source-type</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eprescription/ValueSet/fr-medication-history-source-type</t>
   </si>
   <si>
     <t>Extension.extension:source.extension:author</t>
@@ -919,7 +919,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="27.3046875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.15625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="74.55859375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/nr-keep-only-ep/ig/StructureDefinition-fr-medication-history-sources.xlsx
+++ b/nr-keep-only-ep/ig/StructureDefinition-fr-medication-history-sources.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T16:07:48+00:00</t>
+    <t>2025-10-28T16:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-keep-only-ep/ig/StructureDefinition-fr-medication-history-sources.xlsx
+++ b/nr-keep-only-ep/ig/StructureDefinition-fr-medication-history-sources.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T16:07:35+00:00</t>
+    <t>2025-10-28T16:42:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-keep-only-ep/ig/StructureDefinition-fr-medication-history-sources.xlsx
+++ b/nr-keep-only-ep/ig/StructureDefinition-fr-medication-history-sources.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T16:42:48+00:00</t>
+    <t>2025-10-28T16:58:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-keep-only-ep/ig/StructureDefinition-fr-medication-history-sources.xlsx
+++ b/nr-keep-only-ep/ig/StructureDefinition-fr-medication-history-sources.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T16:58:49+00:00</t>
+    <t>2025-10-28T17:06:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
